--- a/doc/宏发result表回写补充2.0.xlsx
+++ b/doc/宏发result表回写补充2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="795" windowWidth="18075" windowHeight="9540"/>
+    <workbookView minimized="1" xWindow="1125" yWindow="795" windowWidth="18075" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,11 +458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM PRODUCT_SPEC where product = 'QFVF4435-2017'  and sampling_point = 'A240' and grade='单稳态'  and  analysis = '继电器企标初始参数';
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>test表二次写入对应sample_number的test_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -743,6 +738,11 @@
   </si>
   <si>
     <t>CHANGED_ON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM PRODUCT_SPEC where product = 'QFVF4435-2017'  and sampling_point = 'A240' and grade='单稳态'  and  analysis = '继电器企标初始参数';
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -838,9 +838,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -852,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:CE19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1190,49 +1190,49 @@
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
         <v>148</v>
       </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>149</v>
-      </c>
       <c r="H4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
         <v>83</v>
       </c>
       <c r="K4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
         <v>120</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>121</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" t="s">
         <v>122</v>
-      </c>
-      <c r="N4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P4" t="s">
-        <v>123</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
@@ -1247,16 +1247,16 @@
         <v>5</v>
       </c>
       <c r="U4" t="s">
+        <v>154</v>
+      </c>
+      <c r="V4" t="s">
         <v>155</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>156</v>
       </c>
-      <c r="W4" t="s">
-        <v>157</v>
-      </c>
       <c r="X4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y4" t="s">
         <v>7</v>
@@ -1283,49 +1283,49 @@
         <v>14</v>
       </c>
       <c r="AG4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH4" t="s">
         <v>126</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>127</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>128</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL4" t="s">
         <v>129</v>
       </c>
-      <c r="AK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>130</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>131</v>
       </c>
       <c r="AN4" t="s">
         <v>15</v>
       </c>
       <c r="AO4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AP4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AQ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS4" t="s">
         <v>132</v>
       </c>
-      <c r="AR4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU4" t="s">
         <v>133</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>134</v>
       </c>
       <c r="AV4" t="s">
         <v>16</v>
@@ -1349,16 +1349,16 @@
         <v>22</v>
       </c>
       <c r="BC4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BD4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BE4" t="s">
         <v>23</v>
       </c>
       <c r="BF4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BG4" t="s">
         <v>24</v>
@@ -1379,22 +1379,22 @@
         <v>29</v>
       </c>
       <c r="BM4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BN4" t="s">
         <v>30</v>
       </c>
       <c r="BO4" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP4" t="s">
         <v>138</v>
       </c>
-      <c r="BP4" t="s">
+      <c r="BQ4" t="s">
         <v>139</v>
       </c>
-      <c r="BQ4" t="s">
+      <c r="BR4" t="s">
         <v>140</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>141</v>
       </c>
       <c r="BS4" t="s">
         <v>31</v>
@@ -1415,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="BY4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BZ4" t="s">
         <v>37</v>
@@ -1427,10 +1427,10 @@
         <v>39</v>
       </c>
       <c r="CC4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="CD4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CE4" t="s">
         <v>40</v>
@@ -3672,13 +3672,13 @@
       <c r="A14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3694,7 +3694,7 @@
         <v>99</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
         <v>75</v>
@@ -3713,281 +3713,281 @@
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="5" t="s">
+      <c r="AP16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="V16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AR16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BE16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF16" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AH16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO16" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP16" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR16" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD16" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BE16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BJ16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL16" s="4" t="s">
+      <c r="BG16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL16" s="3" t="s">
         <v>90</v>
       </c>
       <c r="BM16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BN16" s="4" t="s">
+      <c r="BN16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BO16" s="4" t="s">
+      <c r="BO16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BP16" s="5" t="s">
+      <c r="BP16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BQ16" s="5" t="s">
+      <c r="BQ16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BR16" s="5" t="s">
+      <c r="BR16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BS16" s="4" t="s">
+      <c r="BS16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BT16" s="4" t="s">
+      <c r="BT16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BU16" s="4" t="s">
+      <c r="BU16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BV16" s="4" t="s">
+      <c r="BV16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BW16" s="4" t="s">
+      <c r="BW16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX16" s="4" t="s">
+      <c r="BX16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BY16" s="4" t="s">
+      <c r="BY16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BZ16" s="4" t="s">
+      <c r="BZ16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CA16" s="4" t="s">
+      <c r="CA16" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CB16" s="4" t="s">
+      <c r="CB16" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CC16" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="CD16" s="4" t="s">
-        <v>168</v>
+      <c r="CC16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD16" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:82" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="AG17" s="6"/>
-      <c r="AH17" s="6"/>
-      <c r="AI17" s="6"/>
-      <c r="AJ17" s="6"/>
-      <c r="AL17" s="6"/>
-      <c r="AM17" s="6"/>
-      <c r="AQ17" s="6"/>
-      <c r="AS17" s="7"/>
-      <c r="AU17" s="7"/>
-      <c r="BC17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BO17" s="6"/>
-      <c r="BP17" s="6"/>
-      <c r="BQ17" s="6"/>
-      <c r="BR17" s="6"/>
-      <c r="BY17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AS17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="BC17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BY17" s="5"/>
     </row>
     <row r="18" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -4002,8 +4002,8 @@
       <c r="G18" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
       <c r="N18" t="s">
         <v>75</v>
       </c>
@@ -4019,271 +4019,271 @@
       <c r="W18" t="s">
         <v>75</v>
       </c>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AQ18" s="6"/>
-      <c r="AS18" s="7"/>
-      <c r="AU18" s="7"/>
-      <c r="BC18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BO18" s="6"/>
-      <c r="BP18" s="6"/>
-      <c r="BQ18" s="6"/>
-      <c r="BR18" s="6"/>
-      <c r="BY18" s="6"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AS18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="BC18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BY18" s="5"/>
     </row>
     <row r="19" spans="1:82" ht="114" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="5" t="s">
+      <c r="AP19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P19" s="5" t="s">
+      <c r="AR19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG19" s="5" t="s">
+      <c r="BD19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BE19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BF19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AH19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO19" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR19" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AS19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AW19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BB19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BC19" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD19" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BI19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BJ19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL19" s="4" t="s">
+      <c r="BG19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BI19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BJ19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BL19" s="3" t="s">
         <v>90</v>
       </c>
       <c r="BM19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BN19" s="4" t="s">
+      <c r="BN19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BO19" s="5" t="s">
+      <c r="BO19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BP19" s="5" t="s">
+      <c r="BP19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BQ19" s="5" t="s">
+      <c r="BQ19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BR19" s="5" t="s">
+      <c r="BR19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="BS19" s="4" t="s">
+      <c r="BS19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BT19" s="4" t="s">
+      <c r="BT19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BU19" s="4" t="s">
+      <c r="BU19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BV19" s="4" t="s">
+      <c r="BV19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BW19" s="4" t="s">
+      <c r="BW19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BX19" s="4" t="s">
+      <c r="BX19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BY19" s="5" t="s">
+      <c r="BY19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="BZ19" s="4" t="s">
+      <c r="BZ19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CA19" s="4" t="s">
+      <c r="CA19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CB19" s="4" t="s">
+      <c r="CB19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CC19" s="5" t="s">
+      <c r="CC19" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="CD19" s="5" t="s">
-        <v>116</v>
+      <c r="CD19" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
